--- a/账单/2020-11月收支.xlsx
+++ b/账单/2020-11月收支.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liqinglin/git/We-Want-to-do/账单/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{5108CB28-0FE4-0442-953E-6B4C7F8DE67B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ED98D6-5E0E-7048-87A5-815EB38B0DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4960" yWindow="3540" windowWidth="23040" windowHeight="18860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>预算</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t>2020-11月收支明细</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小米</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -393,15 +397,16 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="黑体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="黑体"/>
       <family val="3"/>
@@ -464,19 +469,19 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -485,11 +490,6 @@
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -647,6 +647,11 @@
         <color theme="4"/>
         <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -1440,33 +1445,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Income" displayName="Income" ref="B13:C16" headerRowDxfId="13" dataDxfId="12" totalsRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Income" displayName="Income" ref="B13:C16" headerRowDxfId="12" dataDxfId="11" totalsRowDxfId="10">
   <autoFilter ref="B13:C16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="项目" totalsRowLabel="Total" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="金额" totalsRowFunction="sum" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="项目" totalsRowLabel="Total" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="金额" totalsRowFunction="sum" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="BudgetTable" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Expenses" displayName="Expenses" ref="B19:C28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Expenses" displayName="Expenses" ref="B19:C28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B19:C28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="项目" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="金额" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="项目" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="金额" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="BudgetTable" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Savings" displayName="Savings" ref="B31:C34" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Savings" displayName="Savings" ref="B31:C34" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="B31:C34" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="日期" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="金额" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="日期" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="金额" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="BudgetTable" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2023,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAED09A6-E4DC-734C-ACFE-6F4B39863EDE}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2035,618 +2040,664 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="55" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="19">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>11.1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>6.76</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="19">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>11.1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>4985.58</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="E4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="19">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>11.1</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>114.3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="19">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>11.1</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>239</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="19">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>11.1</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>78.010000000000005</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="19">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>11.3</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>6.6</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="19">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>11.3</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>2476</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="19">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>11.3</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>100</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="19">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <v>11.4</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>1</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="19">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <v>11.5</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>13</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="E12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="19">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>11.5</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <v>39.6</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="19">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <v>11.5</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>20</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="19">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <v>11.5</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="13">
         <v>11.76</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="19">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>11.5</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>1</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="19">
-      <c r="A17" s="15">
+      <c r="A17" s="13">
         <v>11.5</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>16</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="19">
-      <c r="A18" s="15">
+      <c r="A18" s="13">
         <v>11.6</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>7.5</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="19">
-      <c r="A19" s="15">
+      <c r="A19" s="13">
         <v>11.6</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>74.209999999999994</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="19">
-      <c r="A20" s="15">
+      <c r="A20" s="13">
         <v>11.6</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="13">
         <v>110</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="19">
-      <c r="A21" s="15">
+      <c r="A21" s="13">
         <v>11.6</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="13">
         <v>500</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="19">
-      <c r="A22" s="15">
+      <c r="A22" s="13">
         <v>11.7</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <v>17</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="19">
-      <c r="A23" s="15">
+      <c r="A23" s="13">
         <v>11.7</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="13">
         <v>4</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="19">
-      <c r="A24" s="15">
+      <c r="A24" s="13">
         <v>11.7</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="13">
         <v>160</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="19">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="19">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="19">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="19">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="19">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="19">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="19">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="19">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="19">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" ht="19">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="19">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" ht="19">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" ht="19">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="1:6" s="17" customFormat="1" ht="19">
-      <c r="A38" s="16">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" s="14" customFormat="1" ht="19">
+      <c r="A38" s="17">
         <v>11.6</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="17">
         <v>147.69</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="E38" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="19">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" ht="19">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" ht="19">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="19">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="19">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" ht="19">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" ht="19">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" ht="19">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6" ht="19">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6" ht="19">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:6" ht="19">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6" ht="19">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6" ht="19">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6" ht="19">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/账单/2020-11月收支.xlsx
+++ b/账单/2020-11月收支.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liqinglin/git/We-Want-to-do/账单/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ED98D6-5E0E-7048-87A5-815EB38B0DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F984B116-379C-CC43-A7DC-1C3CE67014F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="3540" windowWidth="23040" windowHeight="18860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4960" yWindow="3540" windowWidth="29760" windowHeight="18860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="管理我的财务" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>预算</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -265,6 +265,34 @@
   </si>
   <si>
     <t>李小米</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1630的取暖费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>256.3的衬衫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1120的保养</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>340的住房</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>420的油费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃火锅菜、肉、酱豆腐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄快递</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -473,13 +501,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2026,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAED09A6-E4DC-734C-ACFE-6F4B39863EDE}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2037,19 +2065,24 @@
     <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="55" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" ht="55" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" ht="19">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" ht="19">
       <c r="A2" s="13" t="s">
         <v>27</v>
       </c>
@@ -2069,7 +2102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19">
+    <row r="3" spans="1:11" ht="19">
       <c r="A3" s="13">
         <v>11.1</v>
       </c>
@@ -2087,7 +2120,7 @@
       </c>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:6" ht="19">
+    <row r="4" spans="1:11" ht="19">
       <c r="A4" s="13">
         <v>11.1</v>
       </c>
@@ -2104,8 +2137,23 @@
         <v>60</v>
       </c>
       <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="19">
+      <c r="G4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19">
       <c r="A5" s="13">
         <v>11.1</v>
       </c>
@@ -2123,7 +2171,7 @@
       </c>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" ht="19">
+    <row r="6" spans="1:11" ht="19">
       <c r="A6" s="13">
         <v>11.1</v>
       </c>
@@ -2141,7 +2189,7 @@
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" ht="19">
+    <row r="7" spans="1:11" ht="19">
       <c r="A7" s="13">
         <v>11.1</v>
       </c>
@@ -2159,7 +2207,7 @@
       </c>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="19">
+    <row r="8" spans="1:11" ht="19">
       <c r="A8" s="13">
         <v>11.3</v>
       </c>
@@ -2177,7 +2225,7 @@
       </c>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="19">
+    <row r="9" spans="1:11" ht="19">
       <c r="A9" s="13">
         <v>11.3</v>
       </c>
@@ -2195,7 +2243,7 @@
       </c>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" ht="19">
+    <row r="10" spans="1:11" ht="19">
       <c r="A10" s="13">
         <v>11.3</v>
       </c>
@@ -2213,7 +2261,7 @@
       </c>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="19">
+    <row r="11" spans="1:11" ht="19">
       <c r="A11" s="13">
         <v>11.4</v>
       </c>
@@ -2231,7 +2279,7 @@
       </c>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" ht="19">
+    <row r="12" spans="1:11" ht="19">
       <c r="A12" s="13">
         <v>11.5</v>
       </c>
@@ -2249,7 +2297,7 @@
       </c>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" ht="19">
+    <row r="13" spans="1:11" ht="19">
       <c r="A13" s="13">
         <v>11.5</v>
       </c>
@@ -2267,7 +2315,7 @@
       </c>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" ht="19">
+    <row r="14" spans="1:11" ht="19">
       <c r="A14" s="13">
         <v>11.5</v>
       </c>
@@ -2285,7 +2333,7 @@
       </c>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" ht="19">
+    <row r="15" spans="1:11" ht="19">
       <c r="A15" s="13">
         <v>11.5</v>
       </c>
@@ -2303,7 +2351,7 @@
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" ht="19">
+    <row r="16" spans="1:11" ht="19">
       <c r="A16" s="13">
         <v>11.5</v>
       </c>
@@ -2466,19 +2514,39 @@
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="19">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="B25" s="13">
+        <v>118</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="19">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="B26" s="13">
+        <v>8</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="19">
@@ -2570,22 +2638,22 @@
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" s="14" customFormat="1" ht="19">
-      <c r="A38" s="17">
+      <c r="A38" s="15">
         <v>11.6</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="15">
         <v>147.69</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="17"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" ht="19">
       <c r="A39" s="13"/>
